--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199630.0669352603</v>
+        <v>-202135.6461243513</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>22.98660208847439</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>351.8569769687591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>289.1021206204724</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>114.7053989184401</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>162.9023800473894</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>148.4399041872973</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>232.8521789952004</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.3063220636248</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>17.71455343339059</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>234.6012964154502</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>151.4318292321329</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>7.906645607737795</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>149.2419515106227</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812011</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>254.809596790797</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>94.80184639741307</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>139.3687739767481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>116.2836593751498</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>144.9604756260739</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>245.9454996361808</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>805.7846820932077</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C2" t="n">
-        <v>436.822165152796</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="D2" t="n">
-        <v>436.822165152796</v>
+        <v>754.255035418694</v>
       </c>
       <c r="E2" t="n">
-        <v>413.603375164438</v>
+        <v>754.255035418694</v>
       </c>
       <c r="F2" t="n">
-        <v>406.6578744152346</v>
+        <v>343.2691306290864</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>343.2691306290864</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.384522157329</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884742</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2349.761373717039</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.7751904765217</v>
+        <v>1387.807075285521</v>
       </c>
       <c r="C4" t="n">
-        <v>662.7751904765217</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1172.686107116214</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>883.5677696200519</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>883.5677696200519</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>883.5677696200519</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>883.5677696200519</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.7751904765217</v>
+        <v>1569.455540115761</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549913</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>758.7856865549913</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>758.7856865549913</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>920.0280835997597</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>751.0919006718528</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>600.9752612595171</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>453.062167677124</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1101.676548429999</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1054.049526853808</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>643.0636220642002</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2713.136153598409</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.367498328294</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1919.308037373606</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1919.308037373606</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="U10" t="n">
-        <v>1273.262145272047</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.262145272047</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.262145272047</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>651.5752442188632</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>503.6621506364701</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>356.7722031385597</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>189.5761038534396</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2262.459138039582</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2042.857673062523</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.683526380545</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.608299724743</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.923811518856</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.506641481895</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.517090583878</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.24448441976844</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>108.9509897252983</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.69072580419488</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>11.91643194193296</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012319</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405077</v>
+        <v>131.695219374394</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646571</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012319</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>31.713401545794</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>45.49286644881082</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>64.74262662649484</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.44497470121439</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>65.75554125013277</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1118975.734048943</v>
+        <v>1118975.734048944</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837521</v>
@@ -26332,28 +26332,28 @@
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="J2" t="n">
-        <v>302679.9748837521</v>
-      </c>
       <c r="K2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87444.62104966228</v>
+        <v>87444.6210496623</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26439,22 +26439,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768908</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1020413.210462528</v>
+        <v>-1020634.341776503</v>
       </c>
       <c r="C6" t="n">
-        <v>-92616.19756751311</v>
+        <v>-92616.19756751339</v>
       </c>
       <c r="D6" t="n">
         <v>110822.5440445927</v>
       </c>
       <c r="E6" t="n">
-        <v>-133802.161069279</v>
+        <v>-133836.8989947147</v>
       </c>
       <c r="F6" t="n">
-        <v>191610.3007380761</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="G6" t="n">
-        <v>191610.300738076</v>
+        <v>191575.5628126403</v>
       </c>
       <c r="H6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="I6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="J6" t="n">
-        <v>24005.12292809352</v>
+        <v>23970.38500265792</v>
       </c>
       <c r="K6" t="n">
-        <v>142500.2080320217</v>
+        <v>142465.4701065861</v>
       </c>
       <c r="L6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126406</v>
       </c>
       <c r="M6" t="n">
-        <v>106555.2728025644</v>
+        <v>106520.5348771288</v>
       </c>
       <c r="N6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="O6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126407</v>
       </c>
       <c r="P6" t="n">
         <v>167360.8262666965</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>358.9437679837874</v>
+        <v>272.9793803469635</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>52.54142218018775</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>57.8463159498225</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>234.2939374761833</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>174.0238667465111</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.11472595930641</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>207.9951019556466</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>176.3204292380032</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>176.320429238002</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>81.02550706230953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>136.9698866949902</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,13 +33670,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.725206750623</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
